--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl2-Cxcr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl2-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.20949702375128</v>
+        <v>7.115595</v>
       </c>
       <c r="H2">
-        <v>6.20949702375128</v>
+        <v>14.23119</v>
       </c>
       <c r="I2">
-        <v>0.009082412123887126</v>
+        <v>0.009306976103932288</v>
       </c>
       <c r="J2">
-        <v>0.009082412123887126</v>
+        <v>0.006258695489408662</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.39324635966321</v>
+        <v>0.7166990000000001</v>
       </c>
       <c r="N2">
-        <v>2.39324635966321</v>
+        <v>2.150097</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2276207788704612</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2276207788704611</v>
       </c>
       <c r="Q2">
-        <v>14.86085614743229</v>
+        <v>5.099739820905</v>
       </c>
       <c r="R2">
-        <v>14.86085614743229</v>
+        <v>30.59843892543</v>
       </c>
       <c r="S2">
-        <v>0.009082412123887126</v>
+        <v>0.002118461149705837</v>
       </c>
       <c r="T2">
-        <v>0.009082412123887126</v>
+        <v>0.001424609142012242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>364.501407023958</v>
+        <v>7.115595</v>
       </c>
       <c r="H3">
-        <v>364.501407023958</v>
+        <v>14.23119</v>
       </c>
       <c r="I3">
-        <v>0.5331433424745153</v>
+        <v>0.009306976103932288</v>
       </c>
       <c r="J3">
-        <v>0.5331433424745153</v>
+        <v>0.006258695489408662</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.39324635966321</v>
+        <v>2.431954666666666</v>
       </c>
       <c r="N3">
-        <v>2.39324635966321</v>
+        <v>7.295864</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="Q3">
-        <v>872.3416654522055</v>
+        <v>17.30480446636</v>
       </c>
       <c r="R3">
-        <v>872.3416654522055</v>
+        <v>103.82882679816</v>
       </c>
       <c r="S3">
-        <v>0.5331433424745153</v>
+        <v>0.00718851495422645</v>
       </c>
       <c r="T3">
-        <v>0.5331433424745153</v>
+        <v>0.00483408634739642</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.407887667234</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H4">
-        <v>184.407887667234</v>
+        <v>1176.01651</v>
       </c>
       <c r="I4">
-        <v>0.2697269083603619</v>
+        <v>0.5127309595519816</v>
       </c>
       <c r="J4">
-        <v>0.2697269083603619</v>
+        <v>0.5171970317736687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.39324635966321</v>
+        <v>0.7166990000000001</v>
       </c>
       <c r="N4">
-        <v>2.39324635966321</v>
+        <v>2.150097</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2276207788704612</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2276207788704611</v>
       </c>
       <c r="Q4">
-        <v>441.3335058527899</v>
+        <v>280.9499522334967</v>
       </c>
       <c r="R4">
-        <v>441.3335058527899</v>
+        <v>2528.54957010147</v>
       </c>
       <c r="S4">
-        <v>0.2697269083603619</v>
+        <v>0.116708220364221</v>
       </c>
       <c r="T4">
-        <v>0.2697269083603619</v>
+        <v>0.1177247912018131</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>110.418155078607</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H5">
-        <v>110.418155078607</v>
+        <v>1176.01651</v>
       </c>
       <c r="I5">
-        <v>0.1615047380725435</v>
+        <v>0.5127309595519816</v>
       </c>
       <c r="J5">
-        <v>0.1615047380725435</v>
+        <v>0.5171970317736687</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.39324635966321</v>
+        <v>2.431954666666666</v>
       </c>
       <c r="N5">
-        <v>2.39324635966321</v>
+        <v>7.295864</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="Q5">
-        <v>264.257847682604</v>
+        <v>953.3396131905155</v>
       </c>
       <c r="R5">
-        <v>264.257847682604</v>
+        <v>8580.056518714639</v>
       </c>
       <c r="S5">
-        <v>0.1615047380725435</v>
+        <v>0.3960227391877606</v>
       </c>
       <c r="T5">
-        <v>0.1615047380725435</v>
+        <v>0.3994722405718556</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.89305341704197</v>
+        <v>225.9980216666667</v>
       </c>
       <c r="H6">
-        <v>6.89305341704197</v>
+        <v>677.9940650000001</v>
       </c>
       <c r="I6">
-        <v>0.01008222593328861</v>
+        <v>0.2955983564533449</v>
       </c>
       <c r="J6">
-        <v>0.01008222593328861</v>
+        <v>0.2981731251189355</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.39324635966321</v>
+        <v>0.7166990000000001</v>
       </c>
       <c r="N6">
-        <v>2.39324635966321</v>
+        <v>2.150097</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.2276207788704612</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.2276207788704611</v>
       </c>
       <c r="Q6">
-        <v>16.49677499729975</v>
+        <v>161.9725561304784</v>
       </c>
       <c r="R6">
-        <v>16.49677499729975</v>
+        <v>1457.753005174305</v>
       </c>
       <c r="S6">
-        <v>0.01008222593328861</v>
+        <v>0.06728432812873857</v>
       </c>
       <c r="T6">
-        <v>0.01008222593328861</v>
+        <v>0.06787039897781157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,424 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2536885553074</v>
+        <v>225.9980216666667</v>
       </c>
       <c r="H7">
-        <v>11.2536885553074</v>
+        <v>677.9940650000001</v>
       </c>
       <c r="I7">
-        <v>0.01646037303540348</v>
+        <v>0.2955983564533449</v>
       </c>
       <c r="J7">
-        <v>0.01646037303540348</v>
+        <v>0.2981731251189355</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.39324635966321</v>
+        <v>2.431954666666666</v>
       </c>
       <c r="N7">
-        <v>2.39324635966321</v>
+        <v>7.295864</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="Q7">
-        <v>26.93284916777296</v>
+        <v>549.6169434496844</v>
       </c>
       <c r="R7">
-        <v>26.93284916777296</v>
+        <v>4946.55249104716</v>
       </c>
       <c r="S7">
-        <v>0.01646037303540348</v>
+        <v>0.2283140283246063</v>
       </c>
       <c r="T7">
-        <v>0.01646037303540348</v>
+        <v>0.2303027261411239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>119.4232813333333</v>
+      </c>
+      <c r="H8">
+        <v>358.269844</v>
+      </c>
+      <c r="I8">
+        <v>0.1562019234684543</v>
+      </c>
+      <c r="J8">
+        <v>0.1575624987533681</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N8">
+        <v>2.150097</v>
+      </c>
+      <c r="O8">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P8">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q8">
+        <v>85.59054630831866</v>
+      </c>
+      <c r="R8">
+        <v>770.314916774868</v>
+      </c>
+      <c r="S8">
+        <v>0.03555480348095373</v>
+      </c>
+      <c r="T8">
+        <v>0.03586449868701772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>119.4232813333333</v>
+      </c>
+      <c r="H9">
+        <v>358.269844</v>
+      </c>
+      <c r="I9">
+        <v>0.1562019234684543</v>
+      </c>
+      <c r="J9">
+        <v>0.1575624987533681</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N9">
+        <v>7.295864</v>
+      </c>
+      <c r="O9">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P9">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q9">
+        <v>290.4320063472462</v>
+      </c>
+      <c r="R9">
+        <v>2613.888057125216</v>
+      </c>
+      <c r="S9">
+        <v>0.1206471199875006</v>
+      </c>
+      <c r="T9">
+        <v>0.1216980000663504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.311581666666666</v>
+      </c>
+      <c r="H10">
+        <v>21.934745</v>
+      </c>
+      <c r="I10">
+        <v>0.009563320545030469</v>
+      </c>
+      <c r="J10">
+        <v>0.009646620528067518</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.150097</v>
+      </c>
+      <c r="O10">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P10">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q10">
+        <v>5.240203268918334</v>
+      </c>
+      <c r="R10">
+        <v>47.161829420265</v>
+      </c>
+      <c r="S10">
+        <v>0.002176810471047719</v>
+      </c>
+      <c r="T10">
+        <v>0.002195771278066508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.311581666666666</v>
+      </c>
+      <c r="H11">
+        <v>21.934745</v>
+      </c>
+      <c r="I11">
+        <v>0.009563320545030469</v>
+      </c>
+      <c r="J11">
+        <v>0.009646620528067518</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N11">
+        <v>7.295864</v>
+      </c>
+      <c r="O11">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P11">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q11">
+        <v>17.78143515496444</v>
+      </c>
+      <c r="R11">
+        <v>160.03291639468</v>
+      </c>
+      <c r="S11">
+        <v>0.00738651007398275</v>
+      </c>
+      <c r="T11">
+        <v>0.00745084925000101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>12.69026</v>
+      </c>
+      <c r="H12">
+        <v>25.38052</v>
+      </c>
+      <c r="I12">
+        <v>0.01659846387725661</v>
+      </c>
+      <c r="J12">
+        <v>0.01116202833655136</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N12">
+        <v>2.150097</v>
+      </c>
+      <c r="O12">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P12">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q12">
+        <v>9.09509665174</v>
+      </c>
+      <c r="R12">
+        <v>54.57057991044</v>
+      </c>
+      <c r="S12">
+        <v>0.003778155275794364</v>
+      </c>
+      <c r="T12">
+        <v>0.002540709583739978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.69026</v>
+      </c>
+      <c r="H13">
+        <v>25.38052</v>
+      </c>
+      <c r="I13">
+        <v>0.01659846387725661</v>
+      </c>
+      <c r="J13">
+        <v>0.01116202833655136</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N13">
+        <v>7.295864</v>
+      </c>
+      <c r="O13">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P13">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q13">
+        <v>30.86213702821333</v>
+      </c>
+      <c r="R13">
+        <v>185.17282216928</v>
+      </c>
+      <c r="S13">
+        <v>0.01282030860146224</v>
+      </c>
+      <c r="T13">
+        <v>0.008621318752811379</v>
       </c>
     </row>
   </sheetData>
